--- a/average_satisfaction_random_g2.xlsx
+++ b/average_satisfaction_random_g2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4C155-110A-4637-8CDA-0370BF336472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C8FFE-631E-4678-A0A9-81173341B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{372A54C2-C18A-4179-AA60-C05D074CAD2F}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{318A296A-1894-43D5-B386-98C577BA35DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D6F8E2-2631-4A83-B6A1-0541FE172A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55460B50-01B6-4445-A30D-3EF15C080353}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.57316395052863955</v>
+        <v>0.62361662010929464</v>
       </c>
       <c r="B1">
+        <v>0.67302243111736393</v>
+      </c>
+      <c r="C1">
+        <v>0.73470978785735863</v>
+      </c>
+      <c r="D1">
+        <v>0.78431331892589373</v>
+      </c>
+      <c r="E1">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>0.72969185238395351</v>
-      </c>
-      <c r="D1">
-        <v>0.7275076263451048</v>
-      </c>
-      <c r="E1">
-        <v>0.64439784862443916</v>
-      </c>
       <c r="F1">
-        <v>0</v>
+        <v>0.63424541090296327</v>
       </c>
       <c r="G1">
-        <v>0.48751446733347864</v>
+        <v>0.82895779119808621</v>
       </c>
       <c r="H1">
-        <v>0.62360237075611746</v>
+        <v>0.72756187696012786</v>
       </c>
       <c r="I1">
         <v>0</v>
       </c>
       <c r="J1">
-        <v>0.67998436685898467</v>
+        <v>0.60577203243414079</v>
       </c>
       <c r="K1">
+        <v>0.49101184657399793</v>
+      </c>
+      <c r="L1">
+        <v>0.73225920003758016</v>
+      </c>
+      <c r="M1">
+        <v>0.57855555037836326</v>
+      </c>
+      <c r="N1">
+        <v>0.85546311451280121</v>
+      </c>
+      <c r="O1">
         <v>0</v>
       </c>
-      <c r="L1">
-        <v>0.59769365063469104</v>
-      </c>
-      <c r="M1">
-        <v>0.60588393557023834</v>
-      </c>
-      <c r="N1">
-        <v>0.80943113355905938</v>
-      </c>
-      <c r="O1">
-        <v>0.78866281930864324</v>
-      </c>
       <c r="P1">
-        <v>0.67961016965547483</v>
+        <v>0.61564589750370879</v>
       </c>
       <c r="Q1">
-        <v>0.63778558056790524</v>
+        <v>0.70818941094291887</v>
       </c>
       <c r="R1">
-        <v>0.72984580415444844</v>
+        <v>0.60118284986327131</v>
       </c>
       <c r="S1">
-        <v>0.79715985245001819</v>
+        <v>0.66028605527051298</v>
       </c>
       <c r="T1">
-        <v>0.63747719277520176</v>
+        <v>0.67351034182930591</v>
       </c>
       <c r="U1">
+        <v>0.64291170835482048</v>
+      </c>
+      <c r="V1">
+        <v>0.69256388533042157</v>
+      </c>
+      <c r="W1">
+        <v>0.69092945449395515</v>
+      </c>
+      <c r="X1">
+        <v>0.68457098934686245</v>
+      </c>
+      <c r="Y1">
         <v>0</v>
       </c>
-      <c r="V1">
-        <v>0.63125517788930285</v>
-      </c>
-      <c r="W1">
-        <v>0.80977481191679646</v>
-      </c>
-      <c r="X1">
-        <v>0.61833543315164163</v>
-      </c>
-      <c r="Y1">
-        <v>0.75741458517974325</v>
-      </c>
       <c r="Z1">
-        <v>0.54997410304051952</v>
+        <v>0.59677900057739441</v>
       </c>
       <c r="AA1">
-        <v>0.64646640518781495</v>
+        <v>0.67246484698838149</v>
       </c>
       <c r="AB1">
-        <v>0.71758440682356939</v>
+        <v>0.73073738097321195</v>
       </c>
       <c r="AC1">
-        <v>0.60202810993885514</v>
+        <v>0.65119076711458479</v>
       </c>
       <c r="AD1">
+        <v>0.65780157678039697</v>
+      </c>
+      <c r="AE1">
+        <v>0.51581924757070297</v>
+      </c>
+      <c r="AF1">
         <v>0</v>
       </c>
-      <c r="AE1">
-        <v>0.84173609019197893</v>
-      </c>
-      <c r="AF1">
-        <v>0.7883781053051685</v>
-      </c>
       <c r="AG1">
-        <v>0.82702075787965079</v>
+        <v>0.74632075377895502</v>
       </c>
       <c r="AH1">
-        <v>0.60918764780599188</v>
+        <v>0.5490266274137271</v>
       </c>
       <c r="AI1">
-        <v>0.67216772580452033</v>
+        <v>0.5018357297978514</v>
       </c>
       <c r="AJ1">
-        <v>0.63003662384103731</v>
+        <v>0.68750345916292677</v>
       </c>
       <c r="AK1">
-        <v>0.71438133906795198</v>
+        <v>0.75306257105345908</v>
       </c>
       <c r="AL1">
-        <v>0.95250597413173255</v>
+        <v>0.70736315570167019</v>
       </c>
       <c r="AM1">
-        <v>0.60202552483620264</v>
+        <v>0.81050562172496521</v>
       </c>
       <c r="AN1">
-        <v>0.46830081174026805</v>
+        <v>0.71862311430735704</v>
       </c>
       <c r="AO1">
-        <v>0.73748797765140461</v>
+        <v>0.57471559102379044</v>
       </c>
       <c r="AP1">
-        <v>0.62369501006567907</v>
+        <v>0.84878065258839153</v>
       </c>
       <c r="AQ1">
-        <v>0.56601100954888672</v>
+        <v>0.67962805909960433</v>
       </c>
       <c r="AR1">
-        <v>0.73399304816507405</v>
+        <v>0.60810966929891819</v>
       </c>
       <c r="AS1">
-        <v>0.83473833906738548</v>
+        <v>0.7359874700466188</v>
       </c>
       <c r="AT1">
+        <v>0.74611246654317087</v>
+      </c>
+      <c r="AU1">
+        <v>0.71231213067479249</v>
+      </c>
+      <c r="AV1">
+        <v>0.72544286265309876</v>
+      </c>
+      <c r="AW1">
+        <v>0.69403501798826961</v>
+      </c>
+      <c r="AX1">
+        <v>0.64948002667188975</v>
+      </c>
+      <c r="AY1">
+        <v>0.56935118747901015</v>
+      </c>
+      <c r="AZ1">
+        <v>0.74744512834495491</v>
+      </c>
+      <c r="BA1">
+        <v>0.76864153810453473</v>
+      </c>
+      <c r="BB1">
+        <v>0.40257505441158803</v>
+      </c>
+      <c r="BC1">
+        <v>0.66743569685885873</v>
+      </c>
+      <c r="BD1">
+        <v>0.70377366721555301</v>
+      </c>
+      <c r="BE1">
+        <v>0.55683154205602003</v>
+      </c>
+      <c r="BF1">
+        <v>0.85435945863379548</v>
+      </c>
+      <c r="BG1">
+        <v>0.72040395040346883</v>
+      </c>
+      <c r="BH1">
+        <v>0.71985199498663788</v>
+      </c>
+      <c r="BI1">
+        <v>0.59563546035705384</v>
+      </c>
+      <c r="BJ1">
+        <v>0.90320734097017497</v>
+      </c>
+      <c r="BK1">
+        <v>0.66169997461915864</v>
+      </c>
+      <c r="BL1">
+        <v>0.50350477839323837</v>
+      </c>
+      <c r="BM1">
+        <v>0.70794303957035576</v>
+      </c>
+      <c r="BN1">
+        <v>0.71644179041380174</v>
+      </c>
+      <c r="BO1">
+        <v>0.5979996487599345</v>
+      </c>
+      <c r="BP1">
+        <v>0.68394567266012685</v>
+      </c>
+      <c r="BQ1">
+        <v>0.89401683085836281</v>
+      </c>
+      <c r="BR1">
+        <v>0.77315234915449116</v>
+      </c>
+      <c r="BS1">
         <v>0</v>
       </c>
-      <c r="AU1">
+      <c r="BT1">
+        <v>0.63048289743453712</v>
+      </c>
+      <c r="BU1">
+        <v>0.78863352302230749</v>
+      </c>
+      <c r="BV1">
+        <v>0.77999797582530628</v>
+      </c>
+      <c r="BW1">
+        <v>0.90660246136356915</v>
+      </c>
+      <c r="BX1">
+        <v>0.64716830570317796</v>
+      </c>
+      <c r="BY1">
+        <v>0.82523360229045972</v>
+      </c>
+      <c r="BZ1">
+        <v>0.69008525113989805</v>
+      </c>
+      <c r="CA1">
+        <v>0.84078727553580135</v>
+      </c>
+      <c r="CB1">
+        <v>0.76777402946126683</v>
+      </c>
+      <c r="CC1">
+        <v>1.0202603678591815</v>
+      </c>
+      <c r="CD1">
+        <v>0.78132195374955271</v>
+      </c>
+      <c r="CE1">
+        <v>0.69553000765327688</v>
+      </c>
+      <c r="CF1">
+        <v>0.6990563505555869</v>
+      </c>
+      <c r="CG1">
+        <v>0.7963531648169665</v>
+      </c>
+      <c r="CH1">
+        <v>0.60381616493793977</v>
+      </c>
+      <c r="CI1">
+        <v>0.74396789345107528</v>
+      </c>
+      <c r="CJ1">
+        <v>0.76069372049288175</v>
+      </c>
+      <c r="CK1">
+        <v>0.70764231921944443</v>
+      </c>
+      <c r="CL1">
         <v>0</v>
       </c>
-      <c r="AV1">
-        <v>0.70255817868099291</v>
-      </c>
-      <c r="AW1">
-        <v>0.79656476026438339</v>
-      </c>
-      <c r="AX1">
-        <v>0.73799202164648914</v>
-      </c>
-      <c r="AY1">
-        <v>0.69208474893696292</v>
-      </c>
-      <c r="AZ1">
-        <v>0.68420194772635101</v>
-      </c>
-      <c r="BA1">
-        <v>0.76068781289907983</v>
-      </c>
-      <c r="BB1">
-        <v>0.58120828731586716</v>
-      </c>
-      <c r="BC1">
-        <v>0.78415194197978833</v>
-      </c>
-      <c r="BD1">
-        <v>0.78512374764038506</v>
-      </c>
-      <c r="BE1">
-        <v>0.64773230851817365</v>
-      </c>
-      <c r="BF1">
-        <v>0.6504974531401394</v>
-      </c>
-      <c r="BG1">
-        <v>0.63465279591133672</v>
-      </c>
-      <c r="BH1">
-        <v>0.79049018352075529</v>
-      </c>
-      <c r="BI1">
-        <v>0.56728346029117571</v>
-      </c>
-      <c r="BJ1">
-        <v>0.77607203170729777</v>
-      </c>
-      <c r="BK1">
-        <v>0.75766064524566179</v>
-      </c>
-      <c r="BL1">
-        <v>0.71922033692878029</v>
-      </c>
-      <c r="BM1">
-        <v>0.72922593170521333</v>
-      </c>
-      <c r="BN1">
-        <v>0.5743995837770739</v>
-      </c>
-      <c r="BO1">
-        <v>0</v>
-      </c>
-      <c r="BP1">
-        <v>0.68543147370406599</v>
-      </c>
-      <c r="BQ1">
-        <v>0.73361516862659026</v>
-      </c>
-      <c r="BR1">
-        <v>0.72213850761156984</v>
-      </c>
-      <c r="BS1">
-        <v>0.69056431025355591</v>
-      </c>
-      <c r="BT1">
-        <v>0.94348115157353496</v>
-      </c>
-      <c r="BU1">
-        <v>0.71523624689537557</v>
-      </c>
-      <c r="BV1">
-        <v>0</v>
-      </c>
-      <c r="BW1">
-        <v>0.7696645884897827</v>
-      </c>
-      <c r="BX1">
-        <v>0.64840731011854025</v>
-      </c>
-      <c r="BY1">
-        <v>0.6652540233274048</v>
-      </c>
-      <c r="BZ1">
-        <v>0.55536010094515953</v>
-      </c>
-      <c r="CA1">
-        <v>0.82380935328773253</v>
-      </c>
-      <c r="CB1">
-        <v>0.72109714886566534</v>
-      </c>
-      <c r="CC1">
-        <v>0.62577054556032385</v>
-      </c>
-      <c r="CD1">
-        <v>0.82397758004628974</v>
-      </c>
-      <c r="CE1">
-        <v>0.73833338865594478</v>
-      </c>
-      <c r="CF1">
-        <v>0.73253957482100096</v>
-      </c>
-      <c r="CG1">
-        <v>0.70191551055278867</v>
-      </c>
-      <c r="CH1">
-        <v>0.66472416837453185</v>
-      </c>
-      <c r="CI1">
-        <v>0.75587668843472355</v>
-      </c>
-      <c r="CJ1">
-        <v>0.58875394242948398</v>
-      </c>
-      <c r="CK1">
-        <v>0.74944405357404664</v>
-      </c>
-      <c r="CL1">
-        <v>0.63357698780241323</v>
-      </c>
       <c r="CM1">
-        <v>0.5625627760951829</v>
+        <v>0.64417890981864767</v>
       </c>
       <c r="CN1">
-        <v>0.71078228002182897</v>
+        <v>0.77296897662085673</v>
       </c>
       <c r="CO1">
-        <v>0.58401568951242377</v>
+        <v>0.57527286397421562</v>
       </c>
       <c r="CP1">
-        <v>0.84687834336390777</v>
+        <v>0.71752124219965296</v>
       </c>
       <c r="CQ1">
-        <v>0.59689927506771134</v>
+        <v>0.65989183844229293</v>
       </c>
       <c r="CR1">
-        <v>0.52487407884495374</v>
+        <v>0.69894427462595521</v>
       </c>
       <c r="CS1">
-        <v>0.79121972464338486</v>
+        <v>0.722689183431375</v>
       </c>
       <c r="CT1">
-        <v>0.73793465539421943</v>
+        <v>0.83499856308933273</v>
       </c>
       <c r="CU1">
-        <v>0.64079454419825532</v>
+        <v>0.82556578002334469</v>
       </c>
       <c r="CV1">
-        <v>0.63176808910499527</v>
+        <v>0.80450689454926139</v>
       </c>
     </row>
   </sheetData>
